--- a/data/GIP_analyse van de jaarrekening_SharonSerneels.xlsx
+++ b/data/GIP_analyse van de jaarrekening_SharonSerneels.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://campussintursula-my.sharepoint.com/personal/sharons409_lln_campussintursula_be/Documents/2021-2022/GIP/PROCES/Dashboard/data/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://campussintursula-my.sharepoint.com/personal/sharons409_lln_campussintursula_be/Documents/2021-2022/GIP/PROCES/dashboard-Sharon/dashboard-Sharon/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <xr:revisionPtr revIDLastSave="818" documentId="8_{39C50F53-4702-4A46-B97D-6BFC4DF8E621}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{40AF8E85-27F8-431E-8AAE-6B4CAF4AA9ED}"/>
   <bookViews>
-    <workbookView xWindow="315" yWindow="0" windowWidth="20175" windowHeight="10920" tabRatio="1000" activeTab="9" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" tabRatio="1000" activeTab="9" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Resultatenrek" sheetId="2" r:id="rId1"/>
